--- a/biology/Biologie cellulaire et moléculaire/George_E._Fox/George_E._Fox.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/George_E._Fox/George_E._Fox.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Edward Fox (né le 17 décembre 1945) est un bactériologiste américain.
 Il est à l'origine avec Carl Woese de la découverte en 1977 d'un troisième domaine du vivant.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>George E. Fox, Kenneth R. Pechman &amp; Carl R. Woese, "Comparative Cataloging of 16s Ribosomal Ribonucleic Acid : Molecular Approach to Procaryotic Systematics", International Journal of Systematic Bacteriology, Vol.27, No.1, January 1977, p. 44-57. DOI 10.1099/00207713-27-1-44
 Carl R. Woese &amp; George E. Fox, "The Concept of Cellular Evolution", Journal of Molecular Evolution, Vol.10, No.1, March 1977, p. 1-6. DOI 10.1007/BF01796132
